--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="9480" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>用例编号</t>
   </si>
@@ -37,10 +37,10 @@
     <t>登录</t>
   </si>
   <si>
-    <t>{"username": "liwanlei","pwd": "liwanlei"}</t>
-  </si>
-  <si>
-    <t>{"suc": "1","assert": "修改密码"}</t>
+    <t>{"username": "u1@3202.com","pwd": "123456@abc"}</t>
+  </si>
+  <si>
+    <t>{"suc": "1","assert": None}</t>
   </si>
   <si>
     <t>login2</t>
@@ -49,7 +49,7 @@
     <t>{"username": "liwanlei","pwd":"liwanlei11"}</t>
   </si>
   <si>
-    <t>{"suc": "0","assert": "用户名或者密码错误"}</t>
+    <t>{"suc": "0","assert": "User does not exist or password error"}</t>
   </si>
   <si>
     <t>login3</t>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -181,69 +181,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,9 +226,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,15 +249,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,9 +278,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +517,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,41 +555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,6 +592,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -625,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,14 +1101,14 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="49.75" customWidth="1"/>
-    <col min="4" max="4" width="44.75" customWidth="1"/>
+    <col min="4" max="4" width="70.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1182,7 +1182,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="137.5" customWidth="1"/>
@@ -1274,10 +1274,10 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="60.125" customWidth="1"/>
-    <col min="4" max="4" width="45.625" customWidth="1"/>
+    <col min="3" max="3" width="60.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="45.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1347,13 +1347,13 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="67.625" customWidth="1"/>
+    <col min="3" max="3" width="67.6296296296296" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
   </cols>
   <sheetData>
